--- a/Assignment3_Grading_Summary.xlsx
+++ b/Assignment3_Grading_Summary.xlsx
@@ -110,7 +110,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -143,6 +143,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -508,7 +523,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J59"/>
+  <dimension ref="A1:K59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -565,22 +580,27 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Self-Grade</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Weighted
 Grade</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Assessment
 Date</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Key Strengths</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Key Weaknesses</t>
         </is>
@@ -615,14 +635,19 @@
       <c r="F2" s="4" t="n">
         <v>87</v>
       </c>
-      <c r="G2" s="5" t="inlineStr"/>
-      <c r="H2" s="5" t="inlineStr"/>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="G2" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="H2" s="14" t="n">
+        <v>69.45</v>
+      </c>
+      <c r="I2" s="5" t="inlineStr"/>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>Complete PRD, 130 tests, 654 docstrings, research notebook with plots, cost analysis, 27 screenshots, good git</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>No pre-commit hooks, could improve test coverage</t>
         </is>
@@ -657,14 +682,19 @@
       <c r="F3" s="6" t="n">
         <v>68</v>
       </c>
-      <c r="G3" s="5" t="inlineStr"/>
-      <c r="H3" s="5" t="inlineStr"/>
-      <c r="I3" s="3" t="inlineStr">
+      <c r="G3" s="5" t="n">
+        <v>95</v>
+      </c>
+      <c r="H3" s="15" t="n">
+        <v>36.23</v>
+      </c>
+      <c r="I3" s="5" t="inlineStr"/>
+      <c r="J3" s="3" t="inlineStr">
         <is>
           <t>Good documentation (382 docstrings), FastAPI implementation, decent git (29 commits), 10 screenshots</t>
         </is>
       </c>
-      <c r="J3" s="3" t="inlineStr">
+      <c r="K3" s="3" t="inlineStr">
         <is>
           <t>NO research, NO cost analysis, minimal testing (8 tests), no CI/CD</t>
         </is>
@@ -699,14 +729,19 @@
       <c r="F4" s="6" t="n">
         <v>68</v>
       </c>
-      <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="3" t="inlineStr">
+      <c r="G4" s="5" t="n">
+        <v>88</v>
+      </c>
+      <c r="H4" s="15" t="n">
+        <v>48.58</v>
+      </c>
+      <c r="I4" s="5" t="inlineStr"/>
+      <c r="J4" s="3" t="inlineStr">
         <is>
           <t>Good documentation (382 docstrings), FastAPI implementation, decent git (29 commits), 10 screenshots</t>
         </is>
       </c>
-      <c r="J4" s="3" t="inlineStr">
+      <c r="K4" s="3" t="inlineStr">
         <is>
           <t>NO research, NO cost analysis, minimal testing (8 tests), no CI/CD</t>
         </is>
@@ -741,14 +776,19 @@
       <c r="F5" s="4" t="n">
         <v>87</v>
       </c>
-      <c r="G5" s="5" t="inlineStr"/>
-      <c r="H5" s="5" t="inlineStr"/>
-      <c r="I5" s="3" t="inlineStr">
+      <c r="G5" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="H5" s="14" t="n">
+        <v>69.45</v>
+      </c>
+      <c r="I5" s="5" t="inlineStr"/>
+      <c r="J5" s="3" t="inlineStr">
         <is>
           <t>Complete PRD, 130 tests, 654 docstrings, research notebook with plots, cost analysis, 27 screenshots, good git</t>
         </is>
       </c>
-      <c r="J5" s="3" t="inlineStr">
+      <c r="K5" s="3" t="inlineStr">
         <is>
           <t>No pre-commit hooks, could improve test coverage</t>
         </is>
@@ -783,14 +823,19 @@
       <c r="F6" s="4" t="n">
         <v>86</v>
       </c>
-      <c r="G6" s="5" t="inlineStr"/>
-      <c r="H6" s="5" t="inlineStr"/>
-      <c r="I6" s="3" t="inlineStr">
+      <c r="G6" s="5" t="n">
+        <v>89</v>
+      </c>
+      <c r="H6" s="16" t="n">
+        <v>83.01000000000001</v>
+      </c>
+      <c r="I6" s="5" t="inlineStr"/>
+      <c r="J6" s="3" t="inlineStr">
         <is>
           <t>144 tests, 413 docstrings, 3062-word README, complete prompt book, budget management, 14 screenshots, 55 commits</t>
         </is>
       </c>
-      <c r="J6" s="3" t="inlineStr">
+      <c r="K6" s="3" t="inlineStr">
         <is>
           <t>No research component, no pre-commit hooks</t>
         </is>
@@ -825,14 +870,19 @@
       <c r="F7" s="6" t="n">
         <v>67</v>
       </c>
-      <c r="G7" s="5" t="inlineStr"/>
-      <c r="H7" s="5" t="inlineStr"/>
-      <c r="I7" s="3" t="inlineStr">
+      <c r="G7" s="5" t="n">
+        <v>95</v>
+      </c>
+      <c r="H7" s="15" t="n">
+        <v>34.05</v>
+      </c>
+      <c r="I7" s="5" t="inlineStr"/>
+      <c r="J7" s="3" t="inlineStr">
         <is>
           <t>Good documentation (368 docstrings), decent testing (33 tests), good git (23 commits), 7 screenshots</t>
         </is>
       </c>
-      <c r="J7" s="3" t="inlineStr">
+      <c r="K7" s="3" t="inlineStr">
         <is>
           <t>NO research, NO cost analysis, no architecture doc, no CI/CD</t>
         </is>
@@ -867,14 +917,19 @@
       <c r="F8" s="6" t="n">
         <v>67</v>
       </c>
-      <c r="G8" s="5" t="inlineStr"/>
-      <c r="H8" s="5" t="inlineStr"/>
-      <c r="I8" s="3" t="inlineStr">
+      <c r="G8" s="5" t="n">
+        <v>67</v>
+      </c>
+      <c r="H8" s="14" t="n">
+        <v>67</v>
+      </c>
+      <c r="I8" s="5" t="inlineStr"/>
+      <c r="J8" s="3" t="inlineStr">
         <is>
           <t>DUPLICATE of 38955 - Good documentation, decent testing, good git</t>
         </is>
       </c>
-      <c r="J8" s="3" t="inlineStr">
+      <c r="K8" s="3" t="inlineStr">
         <is>
           <t>NO research, NO cost analysis, no architecture doc</t>
         </is>
@@ -909,14 +964,19 @@
       <c r="F9" s="6" t="n">
         <v>67</v>
       </c>
-      <c r="G9" s="5" t="inlineStr"/>
-      <c r="H9" s="5" t="inlineStr"/>
-      <c r="I9" s="3" t="inlineStr">
+      <c r="G9" s="5" t="n">
+        <v>95</v>
+      </c>
+      <c r="H9" s="15" t="n">
+        <v>34.05</v>
+      </c>
+      <c r="I9" s="5" t="inlineStr"/>
+      <c r="J9" s="3" t="inlineStr">
         <is>
           <t>DUPLICATE of 38955 - Good documentation, decent testing, good git</t>
         </is>
       </c>
-      <c r="J9" s="3" t="inlineStr">
+      <c r="K9" s="3" t="inlineStr">
         <is>
           <t>NO research, NO cost analysis, no architecture doc</t>
         </is>
@@ -951,14 +1011,19 @@
       <c r="F10" s="7" t="n">
         <v>94</v>
       </c>
-      <c r="G10" s="5" t="inlineStr"/>
-      <c r="H10" s="5" t="inlineStr"/>
-      <c r="I10" s="3" t="inlineStr">
+      <c r="G10" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="H10" s="16" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="I10" s="5" t="inlineStr"/>
+      <c r="J10" s="3" t="inlineStr">
         <is>
           <t>HIGHEST SCORE! 500 tests, 1109 docstrings (96%), 19,411-word README, dual-interface, 3 CI/CD workflows, 28 screenshots, cost analysis</t>
         </is>
       </c>
-      <c r="J10" s="3" t="inlineStr">
+      <c r="K10" s="3" t="inlineStr">
         <is>
           <t>No Jupyter notebook, no pre-commit hooks</t>
         </is>
@@ -993,14 +1058,19 @@
       <c r="F11" s="4" t="n">
         <v>86</v>
       </c>
-      <c r="G11" s="5" t="inlineStr"/>
-      <c r="H11" s="5" t="inlineStr"/>
-      <c r="I11" s="3" t="inlineStr">
+      <c r="G11" s="5" t="n">
+        <v>92</v>
+      </c>
+      <c r="H11" s="17" t="n">
+        <v>79.5</v>
+      </c>
+      <c r="I11" s="5" t="inlineStr"/>
+      <c r="J11" s="3" t="inlineStr">
         <is>
           <t>144 tests, 413 docstrings, 3062-word README, complete prompt book, budget management, 14 screenshots, 55 commits</t>
         </is>
       </c>
-      <c r="J11" s="3" t="inlineStr">
+      <c r="K11" s="3" t="inlineStr">
         <is>
           <t>No research component, no pre-commit hooks</t>
         </is>
@@ -1035,14 +1105,19 @@
       <c r="F12" s="4" t="n">
         <v>89</v>
       </c>
-      <c r="G12" s="5" t="inlineStr"/>
-      <c r="H12" s="5" t="inlineStr"/>
-      <c r="I12" s="3" t="inlineStr">
+      <c r="G12" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="H12" s="17" t="n">
+        <v>74.15000000000001</v>
+      </c>
+      <c r="I12" s="5" t="inlineStr"/>
+      <c r="J12" s="3" t="inlineStr">
         <is>
           <t>2 comprehensive Jupyter notebooks with plots/analysis, 173 tests, excellent documentation, complete PRD, cost analysis, 16 screenshots</t>
         </is>
       </c>
-      <c r="J12" s="3" t="inlineStr">
+      <c r="K12" s="3" t="inlineStr">
         <is>
           <t>No pre-commit hooks, could improve CI/CD coverage</t>
         </is>
@@ -1077,14 +1152,19 @@
       <c r="F13" s="8" t="n">
         <v>44</v>
       </c>
-      <c r="G13" s="5" t="inlineStr"/>
-      <c r="H13" s="5" t="inlineStr"/>
-      <c r="I13" s="3" t="inlineStr">
+      <c r="G13" s="5" t="n">
+        <v>92</v>
+      </c>
+      <c r="H13" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="5" t="inlineStr"/>
+      <c r="J13" s="3" t="inlineStr">
         <is>
           <t>Basic Flask implementation, 9 screenshots</t>
         </is>
       </c>
-      <c r="J13" s="3" t="inlineStr">
+      <c r="K13" s="3" t="inlineStr">
         <is>
           <t>NO tests, NO research, NO architecture docs, minimal documentation (5 docstrings), poor security, weak git</t>
         </is>
@@ -1119,14 +1199,19 @@
       <c r="F14" s="8" t="n">
         <v>55</v>
       </c>
-      <c r="G14" s="5" t="inlineStr"/>
-      <c r="H14" s="5" t="inlineStr"/>
-      <c r="I14" s="3" t="inlineStr">
+      <c r="G14" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="H14" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="5" t="inlineStr"/>
+      <c r="J14" s="3" t="inlineStr">
         <is>
           <t>Basic FastAPI implementation, 11 screenshots, decent README structure</t>
         </is>
       </c>
-      <c r="J14" s="3" t="inlineStr">
+      <c r="K14" s="3" t="inlineStr">
         <is>
           <t>NO tests, NO research, NO cost analysis, minimal documentation (38 docstrings)</t>
         </is>
@@ -1161,14 +1246,19 @@
       <c r="F15" s="8" t="n">
         <v>55</v>
       </c>
-      <c r="G15" s="5" t="inlineStr"/>
-      <c r="H15" s="5" t="inlineStr"/>
-      <c r="I15" s="3" t="inlineStr">
+      <c r="G15" s="5" t="n">
+        <v>90</v>
+      </c>
+      <c r="H15" s="15" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="I15" s="5" t="inlineStr"/>
+      <c r="J15" s="3" t="inlineStr">
         <is>
           <t>Basic FastAPI implementation, 11 screenshots, decent README structure</t>
         </is>
       </c>
-      <c r="J15" s="3" t="inlineStr">
+      <c r="K15" s="3" t="inlineStr">
         <is>
           <t>NO tests, NO research, NO cost analysis, minimal documentation (38 docstrings), weak git (4 commits)</t>
         </is>
@@ -1203,14 +1293,19 @@
       <c r="F16" s="8" t="n">
         <v>44</v>
       </c>
-      <c r="G16" s="5" t="inlineStr"/>
-      <c r="H16" s="5" t="inlineStr"/>
-      <c r="I16" s="3" t="inlineStr">
+      <c r="G16" s="5" t="n">
+        <v>89</v>
+      </c>
+      <c r="H16" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="5" t="inlineStr"/>
+      <c r="J16" s="3" t="inlineStr">
         <is>
           <t>Has basic Flask implementation with 9 screenshots</t>
         </is>
       </c>
-      <c r="J16" s="3" t="inlineStr">
+      <c r="K16" s="3" t="inlineStr">
         <is>
           <t>NO tests, NO research, NO architecture docs, minimal documentation (5 docstrings), poor security (secrets exposed), weak git (4 commits)</t>
         </is>
@@ -1245,14 +1340,19 @@
       <c r="F17" s="6" t="n">
         <v>66</v>
       </c>
-      <c r="G17" s="5" t="inlineStr"/>
-      <c r="H17" s="5" t="inlineStr"/>
-      <c r="I17" s="3" t="inlineStr">
+      <c r="G17" s="5" t="n">
+        <v>66</v>
+      </c>
+      <c r="H17" s="14" t="n">
+        <v>66</v>
+      </c>
+      <c r="I17" s="5" t="inlineStr"/>
+      <c r="J17" s="3" t="inlineStr">
         <is>
           <t>Good documentation (272 docstrings), 13 screenshots, decent README (1866 words)</t>
         </is>
       </c>
-      <c r="J17" s="3" t="inlineStr">
+      <c r="K17" s="3" t="inlineStr">
         <is>
           <t>NO research, NO cost analysis, minimal testing (12 tests), weak git</t>
         </is>
@@ -1287,14 +1387,19 @@
       <c r="F18" s="6" t="n">
         <v>66</v>
       </c>
-      <c r="G18" s="5" t="inlineStr"/>
-      <c r="H18" s="5" t="inlineStr"/>
-      <c r="I18" s="3" t="inlineStr">
+      <c r="G18" s="5" t="n">
+        <v>79</v>
+      </c>
+      <c r="H18" s="15" t="n">
+        <v>56.14</v>
+      </c>
+      <c r="I18" s="5" t="inlineStr"/>
+      <c r="J18" s="3" t="inlineStr">
         <is>
           <t>Good documentation (272 docstrings), 13 screenshots, decent README (1866 words)</t>
         </is>
       </c>
-      <c r="J18" s="3" t="inlineStr">
+      <c r="K18" s="3" t="inlineStr">
         <is>
           <t>NO research, NO cost analysis, minimal testing (12 tests), weak git (7 commits)</t>
         </is>
@@ -1329,14 +1434,19 @@
       <c r="F19" s="6" t="n">
         <v>66</v>
       </c>
-      <c r="G19" s="5" t="inlineStr"/>
-      <c r="H19" s="5" t="inlineStr"/>
-      <c r="I19" s="3" t="inlineStr">
+      <c r="G19" s="5" t="n">
+        <v>66</v>
+      </c>
+      <c r="H19" s="14" t="n">
+        <v>66</v>
+      </c>
+      <c r="I19" s="5" t="inlineStr"/>
+      <c r="J19" s="3" t="inlineStr">
         <is>
           <t>DUPLICATE of 38966 - Good documentation, 13 screenshots</t>
         </is>
       </c>
-      <c r="J19" s="3" t="inlineStr">
+      <c r="K19" s="3" t="inlineStr">
         <is>
           <t>NO research, NO cost analysis, minimal testing</t>
         </is>
@@ -1371,14 +1481,19 @@
       <c r="F20" s="9" t="n">
         <v>71</v>
       </c>
-      <c r="G20" s="5" t="inlineStr"/>
-      <c r="H20" s="5" t="inlineStr"/>
-      <c r="I20" s="3" t="inlineStr">
+      <c r="G20" s="5" t="n">
+        <v>71</v>
+      </c>
+      <c r="H20" s="17" t="n">
+        <v>71</v>
+      </c>
+      <c r="I20" s="5" t="inlineStr"/>
+      <c r="J20" s="3" t="inlineStr">
         <is>
           <t>Has Jupyter notebook with plots (rare!), 3 ADRs, good git with 4 feature branches, 259 docstrings</t>
         </is>
       </c>
-      <c r="J20" s="3" t="inlineStr">
+      <c r="K20" s="3" t="inlineStr">
         <is>
           <t>No cost analysis, minimal testing (23 tests), no CI/CD</t>
         </is>
@@ -1413,14 +1528,19 @@
       <c r="F21" s="4" t="n">
         <v>82</v>
       </c>
-      <c r="G21" s="5" t="inlineStr"/>
-      <c r="H21" s="5" t="inlineStr"/>
-      <c r="I21" s="3" t="inlineStr">
+      <c r="G21" s="5" t="n">
+        <v>95</v>
+      </c>
+      <c r="H21" s="14" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="I21" s="5" t="inlineStr"/>
+      <c r="J21" s="3" t="inlineStr">
         <is>
           <t>Strong testing (212 tests, 93% coverage), 441 docstrings, 6029-word README, 21 screenshots, good git (33 commits)</t>
         </is>
       </c>
-      <c r="J21" s="3" t="inlineStr">
+      <c r="K21" s="3" t="inlineStr">
         <is>
           <t>No PRD, no research, no cost analysis, no pre-commit hooks</t>
         </is>
@@ -1455,14 +1575,19 @@
       <c r="F22" s="4" t="n">
         <v>89</v>
       </c>
-      <c r="G22" s="5" t="inlineStr"/>
-      <c r="H22" s="5" t="inlineStr"/>
-      <c r="I22" s="3" t="inlineStr">
+      <c r="G22" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="H22" s="17" t="n">
+        <v>74.15000000000001</v>
+      </c>
+      <c r="I22" s="5" t="inlineStr"/>
+      <c r="J22" s="3" t="inlineStr">
         <is>
           <t>DUPLICATE of 38960 - 2 Jupyter notebooks, 173 tests, excellent documentation</t>
         </is>
       </c>
-      <c r="J22" s="3" t="inlineStr">
+      <c r="K22" s="3" t="inlineStr">
         <is>
           <t>No pre-commit hooks, could improve CI/CD</t>
         </is>
@@ -1497,14 +1622,19 @@
       <c r="F23" s="4" t="n">
         <v>82</v>
       </c>
-      <c r="G23" s="5" t="inlineStr"/>
-      <c r="H23" s="5" t="inlineStr"/>
-      <c r="I23" s="3" t="inlineStr">
+      <c r="G23" s="5" t="n">
+        <v>95</v>
+      </c>
+      <c r="H23" s="14" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="I23" s="5" t="inlineStr"/>
+      <c r="J23" s="3" t="inlineStr">
         <is>
           <t>DUPLICATE of 38969 - 212 tests (93% coverage), 441 docstrings, 6029-word README</t>
         </is>
       </c>
-      <c r="J23" s="3" t="inlineStr">
+      <c r="K23" s="3" t="inlineStr">
         <is>
           <t>No PRD, no research, no cost analysis</t>
         </is>
@@ -1539,14 +1669,19 @@
       <c r="F24" s="4" t="n">
         <v>87</v>
       </c>
-      <c r="G24" s="5" t="inlineStr"/>
-      <c r="H24" s="5" t="inlineStr"/>
-      <c r="I24" s="3" t="inlineStr">
+      <c r="G24" s="5" t="n">
+        <v>87</v>
+      </c>
+      <c r="H24" s="16" t="n">
+        <v>87</v>
+      </c>
+      <c r="I24" s="5" t="inlineStr"/>
+      <c r="J24" s="3" t="inlineStr">
         <is>
           <t>DUPLICATE of 38953 - Complete PRD, 130 tests, research notebook, cost analysis</t>
         </is>
       </c>
-      <c r="J24" s="3" t="inlineStr">
+      <c r="K24" s="3" t="inlineStr">
         <is>
           <t>No pre-commit hooks</t>
         </is>
@@ -1581,14 +1716,19 @@
       <c r="F25" s="4" t="n">
         <v>87</v>
       </c>
-      <c r="G25" s="5" t="inlineStr"/>
-      <c r="H25" s="5" t="inlineStr"/>
-      <c r="I25" s="3" t="inlineStr">
+      <c r="G25" s="5" t="n">
+        <v>95</v>
+      </c>
+      <c r="H25" s="17" t="n">
+        <v>77.59</v>
+      </c>
+      <c r="I25" s="5" t="inlineStr"/>
+      <c r="J25" s="3" t="inlineStr">
         <is>
           <t>DUPLICATE of 38953 - Complete PRD, 130 tests, 654 docstrings, research notebook, cost analysis, 27 screenshots</t>
         </is>
       </c>
-      <c r="J25" s="3" t="inlineStr">
+      <c r="K25" s="3" t="inlineStr">
         <is>
           <t>No pre-commit hooks, could improve test coverage</t>
         </is>
@@ -1623,14 +1763,19 @@
       <c r="F26" s="6" t="n">
         <v>67</v>
       </c>
-      <c r="G26" s="5" t="inlineStr"/>
-      <c r="H26" s="5" t="inlineStr"/>
-      <c r="I26" s="3" t="inlineStr">
+      <c r="G26" s="5" t="n">
+        <v>67</v>
+      </c>
+      <c r="H26" s="14" t="n">
+        <v>67</v>
+      </c>
+      <c r="I26" s="5" t="inlineStr"/>
+      <c r="J26" s="3" t="inlineStr">
         <is>
           <t>Good documentation (368 docstrings), decent testing (33 tests), good git (23 commits)</t>
         </is>
       </c>
-      <c r="J26" s="3" t="inlineStr">
+      <c r="K26" s="3" t="inlineStr">
         <is>
           <t>NO research, NO cost analysis, no architecture doc, no CI/CD</t>
         </is>
@@ -1665,14 +1810,19 @@
       <c r="F27" s="6" t="n">
         <v>60</v>
       </c>
-      <c r="G27" s="5" t="inlineStr"/>
-      <c r="H27" s="5" t="inlineStr"/>
-      <c r="I27" s="3" t="inlineStr">
+      <c r="G27" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="H27" s="14" t="n">
+        <v>60</v>
+      </c>
+      <c r="I27" s="5" t="inlineStr"/>
+      <c r="J27" s="3" t="inlineStr">
         <is>
           <t>Perfect docstring coverage (160/160 = 100%), good security, decent git (22 commits)</t>
         </is>
       </c>
-      <c r="J27" s="3" t="inlineStr">
+      <c r="K27" s="3" t="inlineStr">
         <is>
           <t>NO research, NO cost analysis, minimal testing (21 tests), no architecture doc</t>
         </is>
@@ -1707,14 +1857,19 @@
       <c r="F28" s="6" t="n">
         <v>60</v>
       </c>
-      <c r="G28" s="5" t="inlineStr"/>
-      <c r="H28" s="5" t="inlineStr"/>
-      <c r="I28" s="3" t="inlineStr">
+      <c r="G28" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="H28" s="14" t="n">
+        <v>60</v>
+      </c>
+      <c r="I28" s="5" t="inlineStr"/>
+      <c r="J28" s="3" t="inlineStr">
         <is>
           <t>DUPLICATE of 38986 - Perfect docstring coverage (100%), good security</t>
         </is>
       </c>
-      <c r="J28" s="3" t="inlineStr">
+      <c r="K28" s="3" t="inlineStr">
         <is>
           <t>NO research, NO cost analysis, minimal testing</t>
         </is>
@@ -1749,14 +1904,19 @@
       <c r="F29" s="6" t="n">
         <v>60</v>
       </c>
-      <c r="G29" s="5" t="inlineStr"/>
-      <c r="H29" s="5" t="inlineStr"/>
-      <c r="I29" s="3" t="inlineStr">
+      <c r="G29" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="H29" s="15" t="n">
+        <v>6</v>
+      </c>
+      <c r="I29" s="5" t="inlineStr"/>
+      <c r="J29" s="3" t="inlineStr">
         <is>
           <t>DUPLICATE of 38986 - Perfect docstring coverage (160/160), good security, decent git history (22 commits)</t>
         </is>
       </c>
-      <c r="J29" s="3" t="inlineStr">
+      <c r="K29" s="3" t="inlineStr">
         <is>
           <t>NO research, NO cost analysis, minimal testing (21 tests), no architecture doc</t>
         </is>
@@ -1791,14 +1951,19 @@
       <c r="F30" s="4" t="n">
         <v>88</v>
       </c>
-      <c r="G30" s="5" t="inlineStr"/>
-      <c r="H30" s="5" t="inlineStr"/>
-      <c r="I30" s="3" t="inlineStr">
+      <c r="G30" s="5" t="n">
+        <v>88</v>
+      </c>
+      <c r="H30" s="16" t="n">
+        <v>88</v>
+      </c>
+      <c r="I30" s="5" t="inlineStr"/>
+      <c r="J30" s="3" t="inlineStr">
         <is>
           <t>10 Jupyter notebooks (exceptional research!), strong testing (91 tests), excellent documentation, comprehensive PRD</t>
         </is>
       </c>
-      <c r="J30" s="3" t="inlineStr">
+      <c r="K30" s="3" t="inlineStr">
         <is>
           <t>No cost analysis, no pre-commit hooks</t>
         </is>
@@ -1833,14 +1998,19 @@
       <c r="F31" s="4" t="n">
         <v>88</v>
       </c>
-      <c r="G31" s="5" t="inlineStr"/>
-      <c r="H31" s="5" t="inlineStr"/>
-      <c r="I31" s="3" t="inlineStr">
+      <c r="G31" s="5" t="n">
+        <v>95</v>
+      </c>
+      <c r="H31" s="17" t="n">
+        <v>79.76000000000001</v>
+      </c>
+      <c r="I31" s="5" t="inlineStr"/>
+      <c r="J31" s="3" t="inlineStr">
         <is>
           <t>10 Jupyter notebooks (exceptional research!), strong testing (91 tests), excellent documentation, comprehensive PRD</t>
         </is>
       </c>
-      <c r="J31" s="3" t="inlineStr">
+      <c r="K31" s="3" t="inlineStr">
         <is>
           <t>No cost analysis, no pre-commit hooks</t>
         </is>
@@ -1875,14 +2045,19 @@
       <c r="F32" s="4" t="n">
         <v>88</v>
       </c>
-      <c r="G32" s="5" t="inlineStr"/>
-      <c r="H32" s="5" t="inlineStr"/>
-      <c r="I32" s="3" t="inlineStr">
+      <c r="G32" s="5" t="n">
+        <v>95</v>
+      </c>
+      <c r="H32" s="17" t="n">
+        <v>79.76000000000001</v>
+      </c>
+      <c r="I32" s="5" t="inlineStr"/>
+      <c r="J32" s="3" t="inlineStr">
         <is>
           <t>DUPLICATE of 38979 - 10 Jupyter notebooks, 91 tests, excellent documentation</t>
         </is>
       </c>
-      <c r="J32" s="3" t="inlineStr">
+      <c r="K32" s="3" t="inlineStr">
         <is>
           <t>No cost analysis, no pre-commit hooks</t>
         </is>
@@ -1917,14 +2092,19 @@
       <c r="F33" s="7" t="n">
         <v>94</v>
       </c>
-      <c r="G33" s="5" t="inlineStr"/>
-      <c r="H33" s="5" t="inlineStr"/>
-      <c r="I33" s="3" t="inlineStr">
+      <c r="G33" s="5" t="n">
+        <v>95</v>
+      </c>
+      <c r="H33" s="18" t="n">
+        <v>92.81999999999999</v>
+      </c>
+      <c r="I33" s="5" t="inlineStr"/>
+      <c r="J33" s="3" t="inlineStr">
         <is>
           <t>HIGHEST SCORE! 500 tests, 1109 docstrings (96%), 19,411-word README, dual-interface (Streamlit+Flask), 3 CI/CD workflows, 28 screenshots, complete cost analysis</t>
         </is>
       </c>
-      <c r="J33" s="3" t="inlineStr">
+      <c r="K33" s="3" t="inlineStr">
         <is>
           <t>No Jupyter notebook (only gap), no pre-commit hooks</t>
         </is>
@@ -1959,14 +2139,19 @@
       <c r="F34" s="9" t="n">
         <v>71</v>
       </c>
-      <c r="G34" s="5" t="inlineStr"/>
-      <c r="H34" s="5" t="inlineStr"/>
-      <c r="I34" s="3" t="inlineStr">
+      <c r="G34" s="5" t="n">
+        <v>96</v>
+      </c>
+      <c r="H34" s="15" t="n">
+        <v>40.76</v>
+      </c>
+      <c r="I34" s="5" t="inlineStr"/>
+      <c r="J34" s="3" t="inlineStr">
         <is>
           <t>Has Jupyter notebook with plots (rare!), 3 ADRs, good git with 4 feature branches, 259 docstrings, complete prompt book</t>
         </is>
       </c>
-      <c r="J34" s="3" t="inlineStr">
+      <c r="K34" s="3" t="inlineStr">
         <is>
           <t>No cost analysis, minimal testing (23 tests), no CI/CD</t>
         </is>
@@ -2001,14 +2186,19 @@
       <c r="F35" s="8" t="n">
         <v>55</v>
       </c>
-      <c r="G35" s="5" t="inlineStr"/>
-      <c r="H35" s="5" t="inlineStr"/>
-      <c r="I35" s="3" t="inlineStr">
+      <c r="G35" s="5" t="n">
+        <v>55</v>
+      </c>
+      <c r="H35" s="15" t="n">
+        <v>55</v>
+      </c>
+      <c r="I35" s="5" t="inlineStr"/>
+      <c r="J35" s="3" t="inlineStr">
         <is>
           <t>Basic implementation with 11 screenshots, some documentation (142 docstrings)</t>
         </is>
       </c>
-      <c r="J35" s="3" t="inlineStr">
+      <c r="K35" s="3" t="inlineStr">
         <is>
           <t>NO research, NO cost analysis, NO tests, poor security, weak git</t>
         </is>
@@ -2043,14 +2233,19 @@
       <c r="F36" s="8" t="n">
         <v>55</v>
       </c>
-      <c r="G36" s="5" t="inlineStr"/>
-      <c r="H36" s="5" t="inlineStr"/>
-      <c r="I36" s="3" t="inlineStr">
+      <c r="G36" s="5" t="n">
+        <v>96</v>
+      </c>
+      <c r="H36" s="15" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="I36" s="5" t="inlineStr"/>
+      <c r="J36" s="3" t="inlineStr">
         <is>
           <t>Basic implementation with 11 screenshots, some documentation (142 docstrings)</t>
         </is>
       </c>
-      <c r="J36" s="3" t="inlineStr">
+      <c r="K36" s="3" t="inlineStr">
         <is>
           <t>NO research, NO cost analysis, NO tests, poor security (hardcoded secrets), weak git (8 commits)</t>
         </is>
@@ -2085,14 +2280,19 @@
       <c r="F37" s="8" t="n">
         <v>44</v>
       </c>
-      <c r="G37" s="5" t="inlineStr"/>
-      <c r="H37" s="5" t="inlineStr"/>
-      <c r="I37" s="3" t="inlineStr">
+      <c r="G37" s="5" t="n">
+        <v>79</v>
+      </c>
+      <c r="H37" s="15" t="n">
+        <v>17.46</v>
+      </c>
+      <c r="I37" s="5" t="inlineStr"/>
+      <c r="J37" s="3" t="inlineStr">
         <is>
           <t>DUPLICATE of 38964 - Basic Flask implementation, 9 screenshots</t>
         </is>
       </c>
-      <c r="J37" s="3" t="inlineStr">
+      <c r="K37" s="3" t="inlineStr">
         <is>
           <t>NO tests, NO research, NO architecture docs, minimal documentation</t>
         </is>
@@ -2127,14 +2327,19 @@
       <c r="F38" s="6" t="n">
         <v>60</v>
       </c>
-      <c r="G38" s="5" t="inlineStr"/>
-      <c r="H38" s="5" t="inlineStr"/>
-      <c r="I38" s="3" t="inlineStr">
+      <c r="G38" s="5" t="n">
+        <v>93</v>
+      </c>
+      <c r="H38" s="15" t="n">
+        <v>23.24</v>
+      </c>
+      <c r="I38" s="5" t="inlineStr"/>
+      <c r="J38" s="3" t="inlineStr">
         <is>
           <t>Perfect docstring coverage (160/160 = 100%), good security, decent git (22 commits), 7 screenshots</t>
         </is>
       </c>
-      <c r="J38" s="3" t="inlineStr">
+      <c r="K38" s="3" t="inlineStr">
         <is>
           <t>NO research, NO cost analysis, minimal testing (21 tests), no architecture doc</t>
         </is>
@@ -2169,14 +2374,19 @@
       <c r="F39" s="4" t="n">
         <v>87</v>
       </c>
-      <c r="G39" s="5" t="inlineStr"/>
-      <c r="H39" s="5" t="inlineStr"/>
-      <c r="I39" s="3" t="inlineStr">
+      <c r="G39" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="H39" s="14" t="n">
+        <v>69.45</v>
+      </c>
+      <c r="I39" s="5" t="inlineStr"/>
+      <c r="J39" s="3" t="inlineStr">
         <is>
           <t>DUPLICATE of 38953 - Complete PRD, 130 tests, 654 docstrings, research notebook, cost analysis</t>
         </is>
       </c>
-      <c r="J39" s="3" t="inlineStr">
+      <c r="K39" s="3" t="inlineStr">
         <is>
           <t>No pre-commit hooks, could improve test coverage</t>
         </is>
@@ -2211,14 +2421,19 @@
       <c r="F40" s="4" t="n">
         <v>87</v>
       </c>
-      <c r="G40" s="5" t="inlineStr"/>
-      <c r="H40" s="5" t="inlineStr"/>
-      <c r="I40" s="3" t="inlineStr">
+      <c r="G40" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="H40" s="14" t="n">
+        <v>69.45</v>
+      </c>
+      <c r="I40" s="5" t="inlineStr"/>
+      <c r="J40" s="3" t="inlineStr">
         <is>
           <t>DUPLICATE of 38953 - Complete PRD, 130 tests, 654 docstrings, research notebook, cost analysis</t>
         </is>
       </c>
-      <c r="J40" s="3" t="inlineStr">
+      <c r="K40" s="3" t="inlineStr">
         <is>
           <t>No pre-commit hooks, could improve test coverage</t>
         </is>
@@ -2253,14 +2468,19 @@
       <c r="F41" s="8" t="n">
         <v>55</v>
       </c>
-      <c r="G41" s="5" t="inlineStr"/>
-      <c r="H41" s="5" t="inlineStr"/>
-      <c r="I41" s="3" t="inlineStr">
+      <c r="G41" s="5" t="n">
+        <v>96</v>
+      </c>
+      <c r="H41" s="15" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="I41" s="5" t="inlineStr"/>
+      <c r="J41" s="3" t="inlineStr">
         <is>
           <t>DUPLICATE of 38963 - Basic FastAPI implementation, 11 screenshots</t>
         </is>
       </c>
-      <c r="J41" s="3" t="inlineStr">
+      <c r="K41" s="3" t="inlineStr">
         <is>
           <t>NO tests, NO research, NO cost analysis, minimal documentation</t>
         </is>
@@ -2295,14 +2515,19 @@
       <c r="F42" s="6" t="n">
         <v>60</v>
       </c>
-      <c r="G42" s="5" t="inlineStr"/>
-      <c r="H42" s="5" t="inlineStr"/>
-      <c r="I42" s="3" t="inlineStr">
+      <c r="G42" s="5" t="n">
+        <v>93</v>
+      </c>
+      <c r="H42" s="15" t="n">
+        <v>23.24</v>
+      </c>
+      <c r="I42" s="5" t="inlineStr"/>
+      <c r="J42" s="3" t="inlineStr">
         <is>
           <t>DUPLICATE of 38986 - Perfect docstring coverage (160/160), good security, decent git</t>
         </is>
       </c>
-      <c r="J42" s="3" t="inlineStr">
+      <c r="K42" s="3" t="inlineStr">
         <is>
           <t>NO research, NO cost analysis, minimal testing (21 tests)</t>
         </is>
@@ -2337,14 +2562,19 @@
       <c r="F43" s="9" t="n">
         <v>71</v>
       </c>
-      <c r="G43" s="5" t="inlineStr"/>
-      <c r="H43" s="5" t="inlineStr"/>
-      <c r="I43" s="3" t="inlineStr">
+      <c r="G43" s="5" t="n">
+        <v>96</v>
+      </c>
+      <c r="H43" s="15" t="n">
+        <v>40.76</v>
+      </c>
+      <c r="I43" s="5" t="inlineStr"/>
+      <c r="J43" s="3" t="inlineStr">
         <is>
           <t>DUPLICATE of 38982 - Has Jupyter notebook with plots, 3 ADRs, good git with feature branches</t>
         </is>
       </c>
-      <c r="J43" s="3" t="inlineStr">
+      <c r="K43" s="3" t="inlineStr">
         <is>
           <t>No cost analysis, minimal testing, no CI/CD</t>
         </is>
@@ -2379,14 +2609,19 @@
       <c r="F44" s="6" t="n">
         <v>68</v>
       </c>
-      <c r="G44" s="5" t="inlineStr"/>
-      <c r="H44" s="5" t="inlineStr"/>
-      <c r="I44" s="3" t="inlineStr">
+      <c r="G44" s="5" t="n">
+        <v>88</v>
+      </c>
+      <c r="H44" s="15" t="n">
+        <v>48.58</v>
+      </c>
+      <c r="I44" s="5" t="inlineStr"/>
+      <c r="J44" s="3" t="inlineStr">
         <is>
           <t>DUPLICATE of 38952 - Good documentation (382 docstrings), FastAPI implementation, 29 commits</t>
         </is>
       </c>
-      <c r="J44" s="3" t="inlineStr">
+      <c r="K44" s="3" t="inlineStr">
         <is>
           <t>NO research, NO cost analysis, minimal testing (8 tests)</t>
         </is>
@@ -2421,14 +2656,19 @@
       <c r="F45" s="4" t="n">
         <v>86</v>
       </c>
-      <c r="G45" s="5" t="inlineStr"/>
-      <c r="H45" s="5" t="inlineStr"/>
-      <c r="I45" s="3" t="inlineStr">
+      <c r="G45" s="5" t="n">
+        <v>92</v>
+      </c>
+      <c r="H45" s="17" t="n">
+        <v>79.5</v>
+      </c>
+      <c r="I45" s="5" t="inlineStr"/>
+      <c r="J45" s="3" t="inlineStr">
         <is>
           <t>DUPLICATE of 38959 - 144 tests, 413 docstrings, complete prompt book, budget management, 14 screenshots</t>
         </is>
       </c>
-      <c r="J45" s="3" t="inlineStr">
+      <c r="K45" s="3" t="inlineStr">
         <is>
           <t>No research component, no pre-commit hooks</t>
         </is>
@@ -2463,14 +2703,19 @@
       <c r="F46" s="4" t="n">
         <v>82</v>
       </c>
-      <c r="G46" s="5" t="inlineStr"/>
-      <c r="H46" s="5" t="inlineStr"/>
-      <c r="I46" s="3" t="inlineStr">
+      <c r="G46" s="5" t="n">
+        <v>95</v>
+      </c>
+      <c r="H46" s="14" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="I46" s="5" t="inlineStr"/>
+      <c r="J46" s="3" t="inlineStr">
         <is>
           <t>DUPLICATE of 38969 - 212 tests (93% coverage), 441 docstrings, 6029-word README, 21 screenshots</t>
         </is>
       </c>
-      <c r="J46" s="3" t="inlineStr">
+      <c r="K46" s="3" t="inlineStr">
         <is>
           <t>No PRD, no research, no cost analysis, no pre-commit hooks</t>
         </is>
@@ -2505,18 +2750,26 @@
       <c r="F47" s="7" t="n">
         <v>94</v>
       </c>
-      <c r="G47" s="5" t="inlineStr"/>
-      <c r="H47" s="5" t="inlineStr"/>
-      <c r="I47" s="3" t="inlineStr">
+      <c r="G47" s="5" t="n">
+        <v>95</v>
+      </c>
+      <c r="H47" s="18" t="n">
+        <v>92.81999999999999</v>
+      </c>
+      <c r="I47" s="5" t="inlineStr"/>
+      <c r="J47" s="3" t="inlineStr">
         <is>
           <t>DUPLICATE of 38981 - HIGHEST SCORE! 500 tests, 1109 docstrings, 19,411-word README, dual-interface, 3 CI/CD workflows</t>
         </is>
       </c>
-      <c r="J47" s="3" t="inlineStr">
+      <c r="K47" s="3" t="inlineStr">
         <is>
           <t>No Jupyter notebook, no pre-commit hooks</t>
         </is>
       </c>
+    </row>
+    <row r="48">
+      <c r="G48" s="5" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="10" t="inlineStr">
@@ -2524,6 +2777,7 @@
           <t>SUMMARY STATISTICS</t>
         </is>
       </c>
+      <c r="G49" s="5" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="11" t="inlineStr">
@@ -2534,6 +2788,7 @@
       <c r="B50" t="n">
         <v>46</v>
       </c>
+      <c r="G50" s="5" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="11" t="inlineStr">
@@ -2545,6 +2800,7 @@
         <f>AVERAGE(F2:F47)</f>
         <v/>
       </c>
+      <c r="G51" s="5" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="11" t="inlineStr">
@@ -2556,6 +2812,7 @@
         <f>MAX(F2:F47)</f>
         <v/>
       </c>
+      <c r="G52" s="5" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="11" t="inlineStr">
@@ -2567,6 +2824,7 @@
         <f>MIN(F2:F47)</f>
         <v/>
       </c>
+      <c r="G53" s="5" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="11" t="inlineStr">
@@ -2578,6 +2836,7 @@
         <f>COUNTIF(F2:F47,"&gt;=60")/COUNT(F2:F47)</f>
         <v/>
       </c>
+      <c r="G54" s="5" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="11" t="inlineStr">
@@ -2589,6 +2848,7 @@
         <f>COUNTIF(F2:F47,"&gt;=90")</f>
         <v/>
       </c>
+      <c r="G55" s="5" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="11" t="inlineStr">
@@ -2600,6 +2860,7 @@
         <f>COUNTIFS(F2:F47,"&gt;=80",F2:F47,"&lt;90")</f>
         <v/>
       </c>
+      <c r="G56" s="5" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="11" t="inlineStr">
@@ -2611,6 +2872,7 @@
         <f>COUNTIFS(F2:F47,"&gt;=70",F2:F47,"&lt;80")</f>
         <v/>
       </c>
+      <c r="G57" s="5" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="11" t="inlineStr">
@@ -2622,6 +2884,7 @@
         <f>COUNTIFS(F2:F47,"&gt;=60",F2:F47,"&lt;70")</f>
         <v/>
       </c>
+      <c r="G58" s="5" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="11" t="inlineStr">
@@ -2633,6 +2896,7 @@
         <f>COUNTIF(F2:F47,"&lt;60")</f>
         <v/>
       </c>
+      <c r="G59" s="5" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="1">
